--- a/bom.xlsx
+++ b/bom.xlsx
@@ -1,12 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shaan\Downloads\Github-Repos\combo-lock-breaker\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{037A6D1C-7E11-4F14-BBFA-B1F14030A32A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -139,42 +161,48 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13.0"/>
+      <sz val="13"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -182,58 +210,57 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -423,311 +450,319 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="36.75"/>
-    <col customWidth="1" min="2" max="2" width="22.25"/>
-    <col customWidth="1" min="4" max="4" width="10.63"/>
-    <col customWidth="1" min="5" max="5" width="13.25"/>
-    <col customWidth="1" min="6" max="6" width="30.13"/>
+    <col min="1" max="1" width="36.7109375" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="30.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+    </row>
+    <row r="3" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="5">
-        <v>20.99</v>
-      </c>
-      <c r="D4" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="E4" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="F4" s="6" t="s">
+      <c r="C4" s="4">
+        <v>25.98</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="5">
-        <v>77.21</v>
-      </c>
-      <c r="D5" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="E5" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="F5" s="6" t="s">
+      <c r="C5" s="4">
+        <v>114.27</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>32.26</v>
       </c>
-      <c r="D6" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="E6" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="F6" s="6" t="s">
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D7" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="E7" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="F7" s="6" t="s">
+      <c r="C7" s="4">
+        <v>2</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4">
         <v>4.13</v>
       </c>
-      <c r="D8" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="E8" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="F8" s="6" t="s">
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="4">
         <v>2.96</v>
       </c>
-      <c r="D9" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="E9" s="3">
-        <v>50.0</v>
-      </c>
-      <c r="F9" s="6" t="s">
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2">
+        <v>50</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="4">
         <v>2.96</v>
       </c>
-      <c r="D10" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="E10" s="3">
-        <v>50.0</v>
-      </c>
-      <c r="F10" s="6" t="s">
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2">
+        <v>50</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="4">
         <v>2.96</v>
       </c>
-      <c r="D11" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="E11" s="3">
-        <v>50.0</v>
-      </c>
-      <c r="F11" s="6" t="s">
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2">
+        <v>50</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="4">
         <v>2.96</v>
       </c>
-      <c r="D12" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="E12" s="3">
-        <v>50.0</v>
-      </c>
-      <c r="F12" s="6" t="s">
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2">
+        <v>50</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="5">
-        <v>71.52</v>
-      </c>
-      <c r="D13" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="E13" s="8" t="s">
+      <c r="C13" s="4">
+        <v>82.02</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="5">
-        <v>4.0</v>
-      </c>
-      <c r="D14" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="F14" s="6" t="s">
+      <c r="C14" s="4">
+        <v>4</v>
+      </c>
+      <c r="D14" s="2">
+        <v>5</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1</v>
+      </c>
+      <c r="F14" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="4">
         <v>1.34</v>
       </c>
-      <c r="D15" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="E15" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="F15" s="3" t="s">
+      <c r="D15" s="2">
+        <v>2</v>
+      </c>
+      <c r="E15" s="2">
+        <v>1</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="16">
-      <c r="B16" s="3"/>
-    </row>
-    <row r="18">
-      <c r="B18" s="3" t="s">
+    <row r="16" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B16" s="2"/>
+    </row>
+    <row r="18" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B18" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="4">
         <f>SUM(C4:C15)</f>
-        <v>225.29</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="B19" s="3" t="s">
+        <v>277.83999999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B19" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="9">
-        <f>IFERROR(__xludf.DUMMYFUNCTION(" C18 * GOOGLEFINANCE(""CURRENCY:CADUSD"")
-"),160.71422208478)</f>
-        <v>160.7142221</v>
+      <c r="C19" s="4">
+        <v>198.22</v>
       </c>
     </row>
   </sheetData>
@@ -735,19 +770,20 @@
     <mergeCell ref="A1:F1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="B4"/>
-    <hyperlink r:id="rId2" ref="B5"/>
-    <hyperlink r:id="rId3" ref="B6"/>
-    <hyperlink r:id="rId4" ref="B7"/>
-    <hyperlink r:id="rId5" ref="B8"/>
-    <hyperlink r:id="rId6" ref="B9"/>
-    <hyperlink r:id="rId7" ref="B10"/>
-    <hyperlink r:id="rId8" ref="B11"/>
-    <hyperlink r:id="rId9" ref="B12"/>
-    <hyperlink r:id="rId10" ref="B13"/>
-    <hyperlink r:id="rId11" ref="B14"/>
-    <hyperlink r:id="rId12" ref="B15"/>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B5" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B6" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B7" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B8" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B9" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B10" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="B11" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B12" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="B13" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="B14" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="B15" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
   </hyperlinks>
-  <drawing r:id="rId13"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>
--- a/bom.xlsx
+++ b/bom.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shaan\Downloads\Github-Repos\combo-lock-breaker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{037A6D1C-7E11-4F14-BBFA-B1F14030A32A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8E3BD00-5CF1-49D9-8EF6-8C0CC64B6BEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="59">
   <si>
     <t>Bill of Materials</t>
   </si>
@@ -156,6 +156,60 @@
   </si>
   <si>
     <t xml:space="preserve">Total: (USD): </t>
+  </si>
+  <si>
+    <t>1x6 Terminal Block</t>
+  </si>
+  <si>
+    <t>1x2 Terminal Block</t>
+  </si>
+  <si>
+    <t>1x3 PinHeader</t>
+  </si>
+  <si>
+    <t>Barrel Jack</t>
+  </si>
+  <si>
+    <t>1x8 PinHeader</t>
+  </si>
+  <si>
+    <t>1x4 PinHeader</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/phoenix-contact/1710726/5198285</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/phoenix-contact/1715721/260631</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/w%C3%BCrth-elektronik/61300411121/4846827</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/w%C3%BCrth-elektronik/61300311121/4846825</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/w%C3%BCrth-elektronik/61300811121/4846839</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/gct/DCJ200-10-A-K1-K/9859579</t>
+  </si>
+  <si>
+    <t>Driver Signal Connectors</t>
+  </si>
+  <si>
+    <t>Driver Power Connectors</t>
+  </si>
+  <si>
+    <t>Debug Connector</t>
+  </si>
+  <si>
+    <t>LCD &amp; Servo Connectors</t>
+  </si>
+  <si>
+    <t>Keypad Connectors</t>
+  </si>
+  <si>
+    <t>Power Connector</t>
   </si>
 </sst>
 </file>
@@ -165,7 +219,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -204,6 +258,13 @@
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -222,10 +283,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -242,8 +304,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -460,10 +524,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -746,23 +810,140 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B16" s="2"/>
-    </row>
-    <row r="18" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B18" s="2" t="s">
+      <c r="A16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="4">
+        <v>6.44</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="4">
+        <v>4.74</v>
+      </c>
+      <c r="D17" s="2">
+        <v>2</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="4">
+        <v>0.18</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D19" s="2">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="4">
+        <v>0.54</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="4">
+        <v>1.07</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="4">
-        <f>SUM(C4:C15)</f>
-        <v>277.83999999999997</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B19" s="2" t="s">
+      <c r="C23" s="4">
+        <f>SUM(C4:C21)</f>
+        <v>291.31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="4">
-        <v>198.22</v>
+      <c r="C24" s="4">
+        <v>207.84</v>
       </c>
     </row>
   </sheetData>
@@ -782,8 +963,14 @@
     <hyperlink ref="B13" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
     <hyperlink ref="B14" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
     <hyperlink ref="B15" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="B16" r:id="rId13" xr:uid="{ED8FB859-6404-4C9D-8BD9-F642787E6013}"/>
+    <hyperlink ref="B18" r:id="rId14" xr:uid="{B5920AE4-D454-40F0-95EE-B8BC82878E0B}"/>
+    <hyperlink ref="B17" r:id="rId15" xr:uid="{E4938175-9003-4C62-8172-1D126A56CFBF}"/>
+    <hyperlink ref="B19" r:id="rId16" xr:uid="{AE5344DF-55A3-415F-A4C4-DD28A89E7CE4}"/>
+    <hyperlink ref="B21" r:id="rId17" xr:uid="{975C3E17-F749-4D52-A00C-84FA673417D1}"/>
+    <hyperlink ref="B20" r:id="rId18" xr:uid="{69875E12-7840-4EC2-B9A4-C8E153A684F9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId13"/>
+  <pageSetup orientation="portrait" r:id="rId19"/>
 </worksheet>
 </file>